--- a/Objetibos TESIS.xlsx
+++ b/Objetibos TESIS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>PROBLEMA</t>
   </si>
@@ -27,9 +27,6 @@
     <t>OBJETIVO</t>
   </si>
   <si>
-    <t xml:space="preserve"> Definir los requerimientos y/o guías de diseño a considerar en aplicaciones del tipo propuesto.</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -42,8 +39,14 @@
     <t>Palabras con relacion en azul</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">¿Cómo favorecer el </t>
+    <t>opcion 2</t>
+  </si>
+  <si>
+    <t>opcion 1</t>
+  </si>
+  <si>
+    <r>
+      <t>¿</t>
     </r>
     <r>
       <rPr>
@@ -53,6 +56,71 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Qué tecnología existe para el desarrollo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del software necesario?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿A través de qué modo se puede </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>determinar la utilidad y aceptabilidad de la propuesta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ejecutar un estudio de usuarios para evaluar el prototipo desarrollado y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>determinar su utilidad y aporte.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Cómo facilitar el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>desarrollo de la lógica de programación</t>
     </r>
     <r>
@@ -78,7 +146,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>para favorecer el desarrollo de las capacidades y habilidades de la lógica de programación</t>
+      <t>para faclilitar el desarrollo de las capacidades y habilidades de la lógica de programación</t>
     </r>
     <r>
       <rPr>
@@ -92,15 +160,6 @@
     </r>
   </si>
   <si>
-    <t>opcion 2</t>
-  </si>
-  <si>
-    <t>opcion 1</t>
-  </si>
-  <si>
-    <r>
-      <t>¿</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -109,7 +168,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Qué tecnología existe para el desarrollo</t>
+      <t>Identificar la tegnología  adecuada</t>
     </r>
     <r>
       <rPr>
@@ -119,10 +178,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> del software necesario?</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> para el desarrollo del prototipo del software.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Cómo </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -131,7 +193,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Identificar la herramienta de desarrollo adecuada</t>
+      <t>determinar las características</t>
     </r>
     <r>
       <rPr>
@@ -141,12 +203,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> para realizar el prototipo del software.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">¿A través de qué modo se puede </t>
+      <t xml:space="preserve"> con las que debería constar la interfaz de usuario para que facilite el desarrollo de la lógica de programación?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -156,7 +218,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>determinar la utilidad y aceptabilidad de la propuesta</t>
+      <t>Definir los requerimientos</t>
     </r>
     <r>
       <rPr>
@@ -166,13 +228,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ejecutar un estudio de usuarios para evaluar el prototipo desarrollado y </t>
-    </r>
+      <t xml:space="preserve"> y/o guías de diseño a considerar en aplicaciones del tipo propuesto.</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -181,11 +240,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>determinar su utilidad y aporte.</t>
-    </r>
-  </si>
-  <si>
-    <t>¿Cómo determinar las características con las que debería constar la interfaz de usuario para que favoresca el desarrollo de la lógica de programación?</t>
+      <t>determinar las características</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> de la interfaz de usuario considerando los requerimientos y/o  guías de diseño en aplicaciones del tipo propuesto.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -237,7 +303,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +322,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -360,17 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -387,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -398,12 +459,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -411,44 +466,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +797,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,74 +809,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9"/>
+      <c r="A1" s="18"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="1:4" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -828,7 +894,7 @@
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1"/>
     </row>

--- a/Objetibos TESIS.xlsx
+++ b/Objetibos TESIS.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>PROBLEMA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
     <t>OBJETIVO</t>
   </si>
@@ -251,6 +250,114 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> de la interfaz de usuario considerando los requerimientos y/o  guías de diseño en aplicaciones del tipo propuesto.</t>
+    </r>
+  </si>
+  <si>
+    <t>facilitar el aprendizaje de programacion</t>
+  </si>
+  <si>
+    <t>Personas comunes y estudiantes.</t>
+  </si>
+  <si>
+    <t>PREGUNTA DE INVESTIGACION</t>
+  </si>
+  <si>
+    <t>desarrollar,</t>
+  </si>
+  <si>
+    <t>promover</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Cómo facilitar el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>desarrollo de la lógica de programación usando el paradigma de la interacción sin contacto?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Crear un softaware para facilitar el </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>desarrollo de la lógica de programación usando el paradigma de la interacción sin contacto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿Qué </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> características debería constar la interfaz de usuario para que facilite el desarrollo de la lógica de programación?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Determinar las características que debería constar la interfaz de usuario para que facilite el desarrollo de la lógica de programación.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">¿A través de qué modo se puede </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>determinar la utilidad y aceptabilidad de la propuesta?</t>
+    </r>
+  </si>
+  <si>
+    <t>Ejecutar un estudio de usuarios para evaluar la utilidad y aceptabilidad de la propuesta.</t>
+  </si>
+  <si>
+    <t>Identificar la tegnología existente para el desarrollo del prototipo del software.</t>
+  </si>
+  <si>
+    <r>
+      <t>¿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Qué tecnología existe para el desarrollo del prototipo del software necesario?</t>
     </r>
   </si>
 </sst>
@@ -258,7 +365,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,6 +409,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -448,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -493,6 +607,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,17 +628,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,6 +653,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361524</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="3409524" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -796,89 +963,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.140625" customWidth="1"/>
     <col min="4" max="4" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="18"/>
+      <c r="A1" s="22"/>
       <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="4"/>
       <c r="C2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="19"/>
+      <c r="D3" s="16"/>
     </row>
     <row r="4" spans="1:4" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>13</v>
+      <c r="D5" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
@@ -894,9 +1061,15 @@
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1"/>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
@@ -974,4 +1147,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="51.28515625" customWidth="1"/>
+    <col min="4" max="4" width="58.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22"/>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>